--- a/data/pca/factorExposure/factorExposure_2017-05-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-05-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02269602810919238</v>
+        <v>-0.01048292643676606</v>
       </c>
       <c r="C2">
-        <v>-0.009079961893255434</v>
+        <v>0.0448453091442857</v>
       </c>
       <c r="D2">
-        <v>0.03819202666991584</v>
+        <v>0.02981504403077563</v>
       </c>
       <c r="E2">
-        <v>0.01018328458718922</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03337227433398023</v>
+      </c>
+      <c r="F2">
+        <v>-0.009100547437619934</v>
+      </c>
+      <c r="G2">
+        <v>-0.09624941056424954</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01746203900423276</v>
+        <v>-0.04296374740451021</v>
       </c>
       <c r="C3">
-        <v>0.0246428147465931</v>
+        <v>0.1019490676656185</v>
       </c>
       <c r="D3">
-        <v>0.1022882397272779</v>
+        <v>0.01800354449899423</v>
       </c>
       <c r="E3">
-        <v>0.05557634063501406</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.1005670685888809</v>
+      </c>
+      <c r="F3">
+        <v>-0.006505712461802658</v>
+      </c>
+      <c r="G3">
+        <v>-0.1922011491818904</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0254288433557161</v>
+        <v>-0.05573137603244709</v>
       </c>
       <c r="C4">
-        <v>0.006026183474815208</v>
+        <v>0.06803092031494916</v>
       </c>
       <c r="D4">
-        <v>0.08975805928294228</v>
+        <v>0.02441545362688151</v>
       </c>
       <c r="E4">
-        <v>-0.007671274403274878</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02747711827440476</v>
+      </c>
+      <c r="F4">
+        <v>-0.0100708603502187</v>
+      </c>
+      <c r="G4">
+        <v>-0.09725402224731462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01357319840866781</v>
+        <v>-0.03726673806356454</v>
       </c>
       <c r="C6">
-        <v>-0.009966895886944382</v>
+        <v>0.05314231934472335</v>
       </c>
       <c r="D6">
-        <v>0.08303466685284483</v>
+        <v>0.01691223333172212</v>
       </c>
       <c r="E6">
-        <v>-0.007739594389036767</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.03180095904363434</v>
+      </c>
+      <c r="F6">
+        <v>-0.01068553084343472</v>
+      </c>
+      <c r="G6">
+        <v>-0.07958013104050883</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01183221405017606</v>
+        <v>-0.02078931641220515</v>
       </c>
       <c r="C7">
-        <v>0.002623057649726662</v>
+        <v>0.04159825433123737</v>
       </c>
       <c r="D7">
-        <v>0.0444712726652535</v>
+        <v>0.01338552602505689</v>
       </c>
       <c r="E7">
-        <v>-0.04250545684211289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.004260369814204128</v>
+      </c>
+      <c r="F7">
+        <v>0.005406817060839809</v>
+      </c>
+      <c r="G7">
+        <v>-0.1259476465081416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0007370702483257124</v>
+        <v>-0.003451684918255516</v>
       </c>
       <c r="C8">
-        <v>-0.0005356040362858561</v>
+        <v>0.02518185120788736</v>
       </c>
       <c r="D8">
-        <v>0.008861230542695116</v>
+        <v>0.00397063944100638</v>
       </c>
       <c r="E8">
-        <v>-0.001351644864542207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02426565270673017</v>
+      </c>
+      <c r="F8">
+        <v>-0.006298544154820147</v>
+      </c>
+      <c r="G8">
+        <v>-0.06875616180860905</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01755723811806522</v>
+        <v>-0.03367238691505903</v>
       </c>
       <c r="C9">
-        <v>0.009178791855386408</v>
+        <v>0.04967656401345644</v>
       </c>
       <c r="D9">
-        <v>0.06475515426584251</v>
+        <v>0.01657177603817327</v>
       </c>
       <c r="E9">
-        <v>0.0006881458299849212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01731317203224491</v>
+      </c>
+      <c r="F9">
+        <v>-0.007264929410031364</v>
+      </c>
+      <c r="G9">
+        <v>-0.09684756748777193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.03895245362640092</v>
+        <v>-0.09829018437891932</v>
       </c>
       <c r="C10">
-        <v>0.1771113599605879</v>
+        <v>-0.181147095969616</v>
       </c>
       <c r="D10">
-        <v>-0.0930356957741813</v>
+        <v>-0.01491554929850662</v>
       </c>
       <c r="E10">
-        <v>0.03246421425575279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02094535066425472</v>
+      </c>
+      <c r="F10">
+        <v>0.0236862723634097</v>
+      </c>
+      <c r="G10">
+        <v>-0.06152752912256876</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0006059811624104958</v>
+        <v>-0.03511669476761272</v>
       </c>
       <c r="C11">
-        <v>-0.001689292713597784</v>
+        <v>0.05473656130888231</v>
       </c>
       <c r="D11">
-        <v>0.05773780448528825</v>
+        <v>0.002254581958274782</v>
       </c>
       <c r="E11">
-        <v>0.003619103128501193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.01021588337812778</v>
+      </c>
+      <c r="F11">
+        <v>-0.02075385926636244</v>
+      </c>
+      <c r="G11">
+        <v>-0.08650975609953668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005807884751509154</v>
+        <v>-0.0367618709058756</v>
       </c>
       <c r="C12">
-        <v>0.0006579079731281002</v>
+        <v>0.04932109683694817</v>
       </c>
       <c r="D12">
-        <v>0.051593572781704</v>
+        <v>0.006215297744458509</v>
       </c>
       <c r="E12">
-        <v>-0.01216852905530643</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.002815049026734252</v>
+      </c>
+      <c r="F12">
+        <v>-0.001536314123129419</v>
+      </c>
+      <c r="G12">
+        <v>-0.08138306135296465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02512606457623554</v>
+        <v>-0.01667272822483745</v>
       </c>
       <c r="C13">
-        <v>0.01181605788208071</v>
+        <v>0.04175831833728919</v>
       </c>
       <c r="D13">
-        <v>0.0387581597110903</v>
+        <v>0.02627546809903579</v>
       </c>
       <c r="E13">
-        <v>0.02218575360226091</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.03067262370043083</v>
+      </c>
+      <c r="F13">
+        <v>-0.00606175324535605</v>
+      </c>
+      <c r="G13">
+        <v>-0.1245050790046097</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.009859822274448629</v>
+        <v>-0.009056438010527669</v>
       </c>
       <c r="C14">
-        <v>0.01108489572777345</v>
+        <v>0.02976807733509475</v>
       </c>
       <c r="D14">
-        <v>0.02116668315940673</v>
+        <v>0.009893912724127244</v>
       </c>
       <c r="E14">
-        <v>0.002383900924061528</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.002846632804585149</v>
+      </c>
+      <c r="F14">
+        <v>0.009401770455287872</v>
+      </c>
+      <c r="G14">
+        <v>-0.1004254287475326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.002125209557553434</v>
+        <v>-0.0336686895427214</v>
       </c>
       <c r="C16">
-        <v>0.005902199757615219</v>
+        <v>0.04797178382330869</v>
       </c>
       <c r="D16">
-        <v>0.0485135360971435</v>
+        <v>0.001816795887045293</v>
       </c>
       <c r="E16">
-        <v>-0.007819933703086122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.00937268405984785</v>
+      </c>
+      <c r="F16">
+        <v>-0.002734662612922944</v>
+      </c>
+      <c r="G16">
+        <v>-0.08959951812246846</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01512095455836521</v>
+        <v>-0.02202520302585999</v>
       </c>
       <c r="C19">
-        <v>0.007643345780125981</v>
+        <v>0.05504934102944675</v>
       </c>
       <c r="D19">
-        <v>0.05121260135086871</v>
+        <v>0.01895065953248342</v>
       </c>
       <c r="E19">
-        <v>0.002850463154095057</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.06939349135898536</v>
+      </c>
+      <c r="F19">
+        <v>-0.02009680177339664</v>
+      </c>
+      <c r="G19">
+        <v>-0.1342302809601835</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01112356846300158</v>
+        <v>-0.01543253482038822</v>
       </c>
       <c r="C20">
-        <v>0.0009712974378220586</v>
+        <v>0.04053865156477006</v>
       </c>
       <c r="D20">
-        <v>0.03731566115232074</v>
+        <v>0.01403301526284954</v>
       </c>
       <c r="E20">
-        <v>0.0271756239884171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02957904731093088</v>
+      </c>
+      <c r="F20">
+        <v>0.01373684220915152</v>
+      </c>
+      <c r="G20">
+        <v>-0.1069356456294562</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01600430370824105</v>
+        <v>-0.01322312985545284</v>
       </c>
       <c r="C21">
-        <v>0.01042228529199311</v>
+        <v>0.04112632600350322</v>
       </c>
       <c r="D21">
-        <v>0.04096893850575408</v>
+        <v>0.01882540092321762</v>
       </c>
       <c r="E21">
-        <v>0.009131415333893275</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.0423822643852196</v>
+      </c>
+      <c r="F21">
+        <v>-0.002485685199505909</v>
+      </c>
+      <c r="G21">
+        <v>-0.1325788548067488</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0009376809328014396</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.000157467530889815</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.0003528819362411932</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.001294551624117056</v>
+      </c>
+      <c r="F22">
+        <v>-0.0007338726378476925</v>
+      </c>
+      <c r="G22">
+        <v>-0.003047383019222512</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0009420143279523539</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0001571376928580263</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.0003530138203997029</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.001300276110043156</v>
+      </c>
+      <c r="F23">
+        <v>-0.0007323754995259282</v>
+      </c>
+      <c r="G23">
+        <v>-0.003059958535981719</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.003703457615975461</v>
+        <v>-0.02917835639432602</v>
       </c>
       <c r="C24">
-        <v>-0.007008723157911281</v>
+        <v>0.05204697121388499</v>
       </c>
       <c r="D24">
-        <v>0.05198474729268453</v>
+        <v>0.006990806985342949</v>
       </c>
       <c r="E24">
-        <v>-0.006353781161152615</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.005596185788923116</v>
+      </c>
+      <c r="F24">
+        <v>-0.01184658014270378</v>
+      </c>
+      <c r="G24">
+        <v>-0.08661695026361514</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01317996836423597</v>
+        <v>-0.04375325726798728</v>
       </c>
       <c r="C25">
-        <v>0.008852982554970702</v>
+        <v>0.05947859235502675</v>
       </c>
       <c r="D25">
-        <v>0.06185695615327671</v>
+        <v>0.01103943573899513</v>
       </c>
       <c r="E25">
-        <v>-0.009008675300364675</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.001248852332297611</v>
+      </c>
+      <c r="F25">
+        <v>-0.006204397002068567</v>
+      </c>
+      <c r="G25">
+        <v>-0.09846939396367117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02327679340833716</v>
+        <v>-0.01414719386918463</v>
       </c>
       <c r="C26">
-        <v>0.002624282157702937</v>
+        <v>0.01180344775848622</v>
       </c>
       <c r="D26">
-        <v>0.00394017148736299</v>
+        <v>0.02401902694742868</v>
       </c>
       <c r="E26">
-        <v>-0.003057227955841222</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.007422306417045569</v>
+      </c>
+      <c r="F26">
+        <v>0.008920971718489292</v>
+      </c>
+      <c r="G26">
+        <v>-0.08022315445227444</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.06773922080294022</v>
+        <v>-0.1245658762142453</v>
       </c>
       <c r="C28">
-        <v>0.2429061419525038</v>
+        <v>-0.237612922718073</v>
       </c>
       <c r="D28">
-        <v>-0.11690469434579</v>
+        <v>-0.005829846850659867</v>
       </c>
       <c r="E28">
-        <v>0.004265018485132191</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.006147583068537592</v>
+      </c>
+      <c r="F28">
+        <v>0.01649890146195944</v>
+      </c>
+      <c r="G28">
+        <v>-0.05562437738463171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01087704725793109</v>
+        <v>-0.009908099201740126</v>
       </c>
       <c r="C29">
-        <v>0.01628580183401213</v>
+        <v>0.02346380145120952</v>
       </c>
       <c r="D29">
-        <v>0.0218751038004402</v>
+        <v>0.00898790288860851</v>
       </c>
       <c r="E29">
-        <v>0.004753270499840761</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.001479548974884779</v>
+      </c>
+      <c r="F29">
+        <v>0.01788490797803553</v>
+      </c>
+      <c r="G29">
+        <v>-0.09404506822538838</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02295921091249281</v>
+        <v>-0.04172552895047935</v>
       </c>
       <c r="C30">
-        <v>-0.01247773993048535</v>
+        <v>0.06962008632562715</v>
       </c>
       <c r="D30">
-        <v>0.1001828386669801</v>
+        <v>0.02869882050868326</v>
       </c>
       <c r="E30">
-        <v>0.03601866301512668</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05290133496831852</v>
+      </c>
+      <c r="F30">
+        <v>-0.04573661929177443</v>
+      </c>
+      <c r="G30">
+        <v>-0.1104367343814386</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.01214246235663206</v>
+        <v>-0.05379638722620263</v>
       </c>
       <c r="C31">
-        <v>0.02867002525674707</v>
+        <v>0.03809763808686133</v>
       </c>
       <c r="D31">
-        <v>0.04090308354933464</v>
+        <v>0.003653168287219026</v>
       </c>
       <c r="E31">
-        <v>-0.0003351234439086811</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.001829124515031802</v>
+      </c>
+      <c r="F31">
+        <v>0.04231102427079873</v>
+      </c>
+      <c r="G31">
+        <v>-0.09505730206728961</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.00444477971089673</v>
+        <v>-0.001972129089870469</v>
       </c>
       <c r="C32">
-        <v>0.01604057636167242</v>
+        <v>0.02549741924965565</v>
       </c>
       <c r="D32">
-        <v>0.01119157062718155</v>
+        <v>-0.003600437542084097</v>
       </c>
       <c r="E32">
-        <v>-0.03878083742384152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01906645896065431</v>
+      </c>
+      <c r="F32">
+        <v>-0.03745029747098188</v>
+      </c>
+      <c r="G32">
+        <v>-0.0897518913407515</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01459488934614289</v>
+        <v>-0.02864479930797875</v>
       </c>
       <c r="C33">
-        <v>0.0122520349122543</v>
+        <v>0.05078926100549554</v>
       </c>
       <c r="D33">
-        <v>0.04442676737334156</v>
+        <v>0.01560315174412502</v>
       </c>
       <c r="E33">
-        <v>0.02497869929766583</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03617192730028505</v>
+      </c>
+      <c r="F33">
+        <v>-0.01626292630999025</v>
+      </c>
+      <c r="G33">
+        <v>-0.1501691121626275</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.001884467843395243</v>
+        <v>-0.04120712856023407</v>
       </c>
       <c r="C34">
-        <v>0.01547944249764991</v>
+        <v>0.06162155921643487</v>
       </c>
       <c r="D34">
-        <v>0.06056316395178907</v>
+        <v>-0.004863607782645009</v>
       </c>
       <c r="E34">
-        <v>-0.01888370284197704</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-7.507487177527578e-05</v>
+      </c>
+      <c r="F34">
+        <v>-0.01960970413408218</v>
+      </c>
+      <c r="G34">
+        <v>-0.09419293404694841</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01428242110834109</v>
+        <v>-0.01648727074623835</v>
       </c>
       <c r="C36">
-        <v>0.01423647261479114</v>
+        <v>0.009889119560871493</v>
       </c>
       <c r="D36">
-        <v>0.007966445344137709</v>
+        <v>0.01228191103492568</v>
       </c>
       <c r="E36">
-        <v>-0.00186335585767652</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.004448437161519611</v>
+      </c>
+      <c r="F36">
+        <v>0.007476058239682114</v>
+      </c>
+      <c r="G36">
+        <v>-0.08761442844884254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.0001920223015562792</v>
+        <v>-0.03225777545835295</v>
       </c>
       <c r="C38">
-        <v>0.02798097638582966</v>
+        <v>0.03159688898785463</v>
       </c>
       <c r="D38">
-        <v>0.0524088830247066</v>
+        <v>-0.007577033954190297</v>
       </c>
       <c r="E38">
-        <v>-0.007222722281921689</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.003032048672802362</v>
+      </c>
+      <c r="F38">
+        <v>0.02028380402370537</v>
+      </c>
+      <c r="G38">
+        <v>-0.08317256874892809</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.00199503426751308</v>
+        <v>-0.03692302093889147</v>
       </c>
       <c r="C39">
-        <v>-0.02964798570985023</v>
+        <v>0.08188092570769158</v>
       </c>
       <c r="D39">
-        <v>0.1026093451322301</v>
+        <v>0.01149497792446201</v>
       </c>
       <c r="E39">
-        <v>0.01288723102456071</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02135034070059228</v>
+      </c>
+      <c r="F39">
+        <v>-0.02387766803226091</v>
+      </c>
+      <c r="G39">
+        <v>-0.08560027649129125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01283226059982153</v>
+        <v>-0.01510291743475011</v>
       </c>
       <c r="C40">
-        <v>0.007432727138176527</v>
+        <v>0.04305488663081026</v>
       </c>
       <c r="D40">
-        <v>0.04328503914898615</v>
+        <v>0.01478165869543094</v>
       </c>
       <c r="E40">
-        <v>-0.01106832585548165</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.02031188274003149</v>
+      </c>
+      <c r="F40">
+        <v>0.01659986820493178</v>
+      </c>
+      <c r="G40">
+        <v>-0.1230207207015794</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.008520708096399843</v>
+        <v>-0.02092627571049409</v>
       </c>
       <c r="C41">
-        <v>0.0217163718411783</v>
+        <v>0.002674618360903414</v>
       </c>
       <c r="D41">
-        <v>-0.009415469977920721</v>
+        <v>0.00411648923203193</v>
       </c>
       <c r="E41">
-        <v>-0.00729498125792189</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.002827893838414081</v>
+      </c>
+      <c r="F41">
+        <v>0.01604983083669204</v>
+      </c>
+      <c r="G41">
+        <v>-0.07627876123805583</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.08752103357225277</v>
+        <v>-0.009322002644140027</v>
       </c>
       <c r="C42">
-        <v>-0.04210437701771253</v>
+        <v>0.03058009820124307</v>
       </c>
       <c r="D42">
-        <v>0.1425575133473506</v>
+        <v>0.09042148228251226</v>
       </c>
       <c r="E42">
-        <v>0.3004521351577809</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.01829180976560165</v>
+      </c>
+      <c r="F42">
+        <v>0.03663287837064753</v>
+      </c>
+      <c r="G42">
+        <v>0.09862455561510776</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.009882857791476084</v>
+        <v>-0.03482653867680048</v>
       </c>
       <c r="C43">
-        <v>0.02434861086129208</v>
+        <v>0.01870893484610379</v>
       </c>
       <c r="D43">
-        <v>-0.003692262448898087</v>
+        <v>0.005906694141157347</v>
       </c>
       <c r="E43">
-        <v>-0.01036405588833459</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01705532713463192</v>
+      </c>
+      <c r="F43">
+        <v>0.005555847091789934</v>
+      </c>
+      <c r="G43">
+        <v>-0.1130404706604786</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003019850998972153</v>
+        <v>-0.01336049324400958</v>
       </c>
       <c r="C44">
-        <v>-0.001032468828144769</v>
+        <v>0.06019393992453282</v>
       </c>
       <c r="D44">
-        <v>0.05794451895479181</v>
+        <v>0.006705435205389102</v>
       </c>
       <c r="E44">
-        <v>-0.007718337339763559</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01841822168223573</v>
+      </c>
+      <c r="F44">
+        <v>0.008993333578725763</v>
+      </c>
+      <c r="G44">
+        <v>-0.1022958690298154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01219002155842842</v>
+        <v>-0.008019789000269823</v>
       </c>
       <c r="C46">
-        <v>0.009320690216221249</v>
+        <v>0.01808522364174775</v>
       </c>
       <c r="D46">
-        <v>0.007819569013679192</v>
+        <v>0.01269362983692598</v>
       </c>
       <c r="E46">
-        <v>0.01094886607525234</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.001550530004144443</v>
+      </c>
+      <c r="F46">
+        <v>0.01717976966379459</v>
+      </c>
+      <c r="G46">
+        <v>-0.09773671423858488</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.007574514038105521</v>
+        <v>-0.0781435841723687</v>
       </c>
       <c r="C47">
-        <v>0.03698773880887722</v>
+        <v>0.0673739887770739</v>
       </c>
       <c r="D47">
-        <v>0.07810353622352913</v>
+        <v>-0.005110711648317197</v>
       </c>
       <c r="E47">
-        <v>-0.01226627957245219</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.00683284271852814</v>
+      </c>
+      <c r="F47">
+        <v>0.05619204936770582</v>
+      </c>
+      <c r="G47">
+        <v>-0.08264316872512366</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.005576081741959486</v>
+        <v>-0.0197691329321425</v>
       </c>
       <c r="C48">
-        <v>0.01775267686205064</v>
+        <v>0.013116413106934</v>
       </c>
       <c r="D48">
-        <v>0.02087896533669989</v>
+        <v>0.0019081723873302</v>
       </c>
       <c r="E48">
-        <v>0.003672353247604855</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.002453680364590148</v>
+      </c>
+      <c r="F48">
+        <v>0.02063682948040771</v>
+      </c>
+      <c r="G48">
+        <v>-0.09058970538900254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.009986804416423115</v>
+        <v>-0.07558900349027492</v>
       </c>
       <c r="C50">
-        <v>0.03979356166338427</v>
+        <v>0.07234185831338172</v>
       </c>
       <c r="D50">
-        <v>0.07487235283218389</v>
+        <v>-0.00249414081546203</v>
       </c>
       <c r="E50">
-        <v>-0.02758134217706317</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.006533379450106019</v>
+      </c>
+      <c r="F50">
+        <v>0.05682383825544725</v>
+      </c>
+      <c r="G50">
+        <v>-0.09499801022509834</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.008371559943874767</v>
+        <v>-0.01494283499167386</v>
       </c>
       <c r="C51">
-        <v>0.00933581352257727</v>
+        <v>0.03727586731408129</v>
       </c>
       <c r="D51">
-        <v>0.02530252931238687</v>
+        <v>0.01034491991754499</v>
       </c>
       <c r="E51">
-        <v>-0.005107197262341118</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01871159215267488</v>
+      </c>
+      <c r="F51">
+        <v>-0.02199205484604034</v>
+      </c>
+      <c r="G51">
+        <v>-0.1209948938436458</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.01054090948924775</v>
+        <v>-0.08217101477158051</v>
       </c>
       <c r="C53">
-        <v>0.03707771348171173</v>
+        <v>0.0855641812343451</v>
       </c>
       <c r="D53">
-        <v>0.131194875595067</v>
+        <v>-0.003517583925323077</v>
       </c>
       <c r="E53">
-        <v>-0.02153924323213133</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02440048489980305</v>
+      </c>
+      <c r="F53">
+        <v>0.06691002284638832</v>
+      </c>
+      <c r="G53">
+        <v>-0.08506722935855382</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.006436814409147338</v>
+        <v>-0.03246591353234753</v>
       </c>
       <c r="C54">
-        <v>0.0397923495440732</v>
+        <v>0.01827277338292351</v>
       </c>
       <c r="D54">
-        <v>0.003261805318709759</v>
+        <v>-0.00160942915457701</v>
       </c>
       <c r="E54">
-        <v>0.01569881917349656</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01357775946559302</v>
+      </c>
+      <c r="F54">
+        <v>0.006083168161640536</v>
+      </c>
+      <c r="G54">
+        <v>-0.1015718178686476</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.005831488395002244</v>
+        <v>-0.07227091435845472</v>
       </c>
       <c r="C55">
-        <v>0.02474727401814047</v>
+        <v>0.0688915310354736</v>
       </c>
       <c r="D55">
-        <v>0.1073896269085834</v>
+        <v>-0.005107774561758146</v>
       </c>
       <c r="E55">
-        <v>-0.00754177836280903</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02172967387985043</v>
+      </c>
+      <c r="F55">
+        <v>0.0637609909006199</v>
+      </c>
+      <c r="G55">
+        <v>-0.06085895411370931</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.01097822756777056</v>
+        <v>-0.1378659286906329</v>
       </c>
       <c r="C56">
-        <v>0.05640240333371592</v>
+        <v>0.1079178375353187</v>
       </c>
       <c r="D56">
-        <v>0.1625645664254468</v>
+        <v>-0.01266940632578228</v>
       </c>
       <c r="E56">
-        <v>-0.02826270649931224</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03061542887429195</v>
+      </c>
+      <c r="F56">
+        <v>0.08176915498651255</v>
+      </c>
+      <c r="G56">
+        <v>-0.03419033745208275</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02506444264324294</v>
+        <v>-0.006627830976765591</v>
       </c>
       <c r="C57">
-        <v>0.003847569433117821</v>
+        <v>0.00858638921556951</v>
       </c>
       <c r="D57">
-        <v>0.04326183187960151</v>
+        <v>0.02350629162152492</v>
       </c>
       <c r="E57">
-        <v>0.03728900652969266</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02554759459355588</v>
+      </c>
+      <c r="F57">
+        <v>-0.0111423163773582</v>
+      </c>
+      <c r="G57">
+        <v>-0.03078001786945825</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01243708599847522</v>
+        <v>-0.05307747173192524</v>
       </c>
       <c r="C58">
-        <v>0.02896139562543496</v>
+        <v>0.05228747035856669</v>
       </c>
       <c r="D58">
-        <v>0.144920272945141</v>
+        <v>0.02427238654571493</v>
       </c>
       <c r="E58">
-        <v>0.8159623584245903</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9357967304553008</v>
+      </c>
+      <c r="F58">
+        <v>0.2206525603318103</v>
+      </c>
+      <c r="G58">
+        <v>0.1662056412141432</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.06921720050361181</v>
+        <v>-0.1594273186516699</v>
       </c>
       <c r="C59">
-        <v>0.2670958191103721</v>
+        <v>-0.2038474302685963</v>
       </c>
       <c r="D59">
-        <v>-0.1011418791420074</v>
+        <v>-0.01123856293582137</v>
       </c>
       <c r="E59">
-        <v>-0.0120989450365992</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01857507691364172</v>
+      </c>
+      <c r="F59">
+        <v>0.0002777230513906684</v>
+      </c>
+      <c r="G59">
+        <v>-0.04453629830343284</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.06173505472874508</v>
+        <v>-0.2879353722092938</v>
       </c>
       <c r="C60">
-        <v>0.1597450044543056</v>
+        <v>0.1048060151319868</v>
       </c>
       <c r="D60">
-        <v>0.1398851231784078</v>
+        <v>0.01139903075533897</v>
       </c>
       <c r="E60">
-        <v>-0.05971982718423827</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.01062733457997404</v>
+      </c>
+      <c r="F60">
+        <v>-0.343249438621463</v>
+      </c>
+      <c r="G60">
+        <v>0.1496729905323603</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002970758138354115</v>
+        <v>-0.03852744748295323</v>
       </c>
       <c r="C61">
-        <v>-0.002944643801479191</v>
+        <v>0.06728526100630952</v>
       </c>
       <c r="D61">
-        <v>0.07654558603603109</v>
+        <v>0.005235546998261933</v>
       </c>
       <c r="E61">
-        <v>-0.005700107921531208</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01375491775504579</v>
+      </c>
+      <c r="F61">
+        <v>-0.01527612285446443</v>
+      </c>
+      <c r="G61">
+        <v>-0.0906495559246497</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.008784892683561472</v>
+        <v>-0.01565951090215524</v>
       </c>
       <c r="C63">
-        <v>0.004015028823557786</v>
+        <v>0.03090852555429534</v>
       </c>
       <c r="D63">
-        <v>0.02981489929334167</v>
+        <v>0.00845411152035986</v>
       </c>
       <c r="E63">
-        <v>-0.01200021000919943</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.001446361535921905</v>
+      </c>
+      <c r="F63">
+        <v>0.01839723820533165</v>
+      </c>
+      <c r="G63">
+        <v>-0.09304708771612033</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.01126655719288326</v>
+        <v>-0.04812948235499819</v>
       </c>
       <c r="C64">
-        <v>0.02198093857586033</v>
+        <v>0.04750013755213896</v>
       </c>
       <c r="D64">
-        <v>0.06425900745016927</v>
+        <v>0.006066987620518913</v>
       </c>
       <c r="E64">
-        <v>-0.005285098404509777</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.0001099393865322336</v>
+      </c>
+      <c r="F64">
+        <v>-0.005985547311492836</v>
+      </c>
+      <c r="G64">
+        <v>-0.08758302241382047</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01782018728921924</v>
+        <v>-0.07523399083564433</v>
       </c>
       <c r="C65">
-        <v>-0.00357260293260534</v>
+        <v>0.05978269186592335</v>
       </c>
       <c r="D65">
-        <v>0.1095007977994241</v>
+        <v>0.01642767340058317</v>
       </c>
       <c r="E65">
-        <v>-0.02574821508160562</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.03274458499218065</v>
+      </c>
+      <c r="F65">
+        <v>-0.03103299952021891</v>
+      </c>
+      <c r="G65">
+        <v>-0.03421133023205065</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.002514633323852443</v>
+        <v>-0.05208964860798306</v>
       </c>
       <c r="C66">
-        <v>-0.02727297439993473</v>
+        <v>0.109793305105755</v>
       </c>
       <c r="D66">
-        <v>0.1368043953014409</v>
+        <v>0.01151335724123474</v>
       </c>
       <c r="E66">
-        <v>0.006531303879954335</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.03065733279530822</v>
+      </c>
+      <c r="F66">
+        <v>-0.03576762135933795</v>
+      </c>
+      <c r="G66">
+        <v>-0.102635078295865</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.008409793014132288</v>
+        <v>-0.0554328592736853</v>
       </c>
       <c r="C67">
-        <v>0.04715880287221596</v>
+        <v>0.03510060285312895</v>
       </c>
       <c r="D67">
-        <v>0.06991387868746342</v>
+        <v>-0.005952699967630403</v>
       </c>
       <c r="E67">
-        <v>-0.009891281362086318</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.00371719401454973</v>
+      </c>
+      <c r="F67">
+        <v>0.01903043465176951</v>
+      </c>
+      <c r="G67">
+        <v>-0.07465065108957392</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.08356000171385573</v>
+        <v>-0.1530848253889374</v>
       </c>
       <c r="C68">
-        <v>0.248670251650144</v>
+        <v>-0.2697660632829351</v>
       </c>
       <c r="D68">
-        <v>-0.1501354555681673</v>
+        <v>0.006344818253736751</v>
       </c>
       <c r="E68">
-        <v>0.02746358902707928</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01329857146968471</v>
+      </c>
+      <c r="F68">
+        <v>0.03275081176597554</v>
+      </c>
+      <c r="G68">
+        <v>-0.03428350290832127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.003351070576720557</v>
+        <v>-0.08283430511406868</v>
       </c>
       <c r="C69">
-        <v>0.03377202672336945</v>
+        <v>0.07091184165689005</v>
       </c>
       <c r="D69">
-        <v>0.08197068665911887</v>
+        <v>-0.009049440383036537</v>
       </c>
       <c r="E69">
-        <v>-0.02459950367679008</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02297982881586292</v>
+      </c>
+      <c r="F69">
+        <v>0.03815590888040715</v>
+      </c>
+      <c r="G69">
+        <v>-0.09445317370117172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.06393384432716614</v>
+        <v>-0.1392598372074542</v>
       </c>
       <c r="C71">
-        <v>0.2110799767773372</v>
+        <v>-0.2282018340181159</v>
       </c>
       <c r="D71">
-        <v>-0.09777884106671515</v>
+        <v>-0.002341040605609186</v>
       </c>
       <c r="E71">
-        <v>0.02881103567622583</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.03376945151838654</v>
+      </c>
+      <c r="F71">
+        <v>0.01932998203442942</v>
+      </c>
+      <c r="G71">
+        <v>-0.07048561643885144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0008718296069197163</v>
+        <v>-0.08496375918325046</v>
       </c>
       <c r="C72">
-        <v>0.0250854465956104</v>
+        <v>0.07189675291855688</v>
       </c>
       <c r="D72">
-        <v>0.107642092729352</v>
+        <v>-0.008428637806354208</v>
       </c>
       <c r="E72">
-        <v>-0.03478887325755149</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.00547582071763177</v>
+      </c>
+      <c r="F72">
+        <v>-0.03896692039034235</v>
+      </c>
+      <c r="G72">
+        <v>-0.08291286485199603</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.0755811349182595</v>
+        <v>-0.3768823425503487</v>
       </c>
       <c r="C73">
-        <v>0.1703278662354626</v>
+        <v>0.1149948592967088</v>
       </c>
       <c r="D73">
-        <v>0.2592715935898708</v>
+        <v>0.0201905265213028</v>
       </c>
       <c r="E73">
-        <v>-0.03015536465608291</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.06004686830778418</v>
+      </c>
+      <c r="F73">
+        <v>-0.5808573166029176</v>
+      </c>
+      <c r="G73">
+        <v>0.2618908991583241</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.009308939792821942</v>
+        <v>-0.1056229754651968</v>
       </c>
       <c r="C74">
-        <v>0.05146206042877287</v>
+        <v>0.1089811283353285</v>
       </c>
       <c r="D74">
-        <v>0.1745045707712375</v>
+        <v>-0.009487525993571446</v>
       </c>
       <c r="E74">
-        <v>-0.01782535481796342</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.006754544228149994</v>
+      </c>
+      <c r="F74">
+        <v>0.06984445640558747</v>
+      </c>
+      <c r="G74">
+        <v>-0.07639085219946372</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.02500936837234363</v>
+        <v>-0.2491708013867965</v>
       </c>
       <c r="C75">
-        <v>0.1302231802005741</v>
+        <v>0.1499192641677249</v>
       </c>
       <c r="D75">
-        <v>0.3006858190742153</v>
+        <v>-0.03089209044429372</v>
       </c>
       <c r="E75">
-        <v>-0.03731210650338367</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05483440960500382</v>
+      </c>
+      <c r="F75">
+        <v>0.1777471825241893</v>
+      </c>
+      <c r="G75">
+        <v>0.03247781756216202</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.00739022487068637</v>
+        <v>-0.1204312233889189</v>
       </c>
       <c r="C76">
-        <v>0.07060822402847192</v>
+        <v>0.1097017663621567</v>
       </c>
       <c r="D76">
-        <v>0.2219580031553605</v>
+        <v>-0.01873601975229846</v>
       </c>
       <c r="E76">
-        <v>-0.05364808221931765</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02940472464286614</v>
+      </c>
+      <c r="F76">
+        <v>0.1114754822201817</v>
+      </c>
+      <c r="G76">
+        <v>-0.0560351004568299</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01579700286895064</v>
+        <v>-0.0681011757838148</v>
       </c>
       <c r="C77">
-        <v>0.01551701165795712</v>
+        <v>0.05865996454721074</v>
       </c>
       <c r="D77">
-        <v>0.066312931683519</v>
+        <v>0.01108272844882911</v>
       </c>
       <c r="E77">
-        <v>0.0160498183139007</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04132037692428672</v>
+      </c>
+      <c r="F77">
+        <v>-0.01509278216609704</v>
+      </c>
+      <c r="G77">
+        <v>-0.05828215717482086</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004830402296020734</v>
+        <v>-0.04201260101383218</v>
       </c>
       <c r="C78">
-        <v>0.002709789181963318</v>
+        <v>0.05121911331118279</v>
       </c>
       <c r="D78">
-        <v>0.05835208955157759</v>
+        <v>0.005391061622652495</v>
       </c>
       <c r="E78">
-        <v>0.01094155688634268</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02205761477254287</v>
+      </c>
+      <c r="F78">
+        <v>-0.03638752827194861</v>
+      </c>
+      <c r="G78">
+        <v>-0.08925981114574684</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01315137891042282</v>
+        <v>-0.04389340765383862</v>
       </c>
       <c r="C80">
-        <v>0.0148995920313662</v>
+        <v>0.07322282265926662</v>
       </c>
       <c r="D80">
-        <v>0.156710369804202</v>
+        <v>0.01041753539176809</v>
       </c>
       <c r="E80">
-        <v>-0.4137554092444924</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.038067062666398</v>
+      </c>
+      <c r="F80">
+        <v>-0.00927031487350014</v>
+      </c>
+      <c r="G80">
+        <v>-0.2715470230690997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.01610862678950779</v>
+        <v>-0.1388383232996903</v>
       </c>
       <c r="C81">
-        <v>0.07878093267887751</v>
+        <v>0.09545979774211311</v>
       </c>
       <c r="D81">
-        <v>0.1801713284848363</v>
+        <v>-0.01512682412596752</v>
       </c>
       <c r="E81">
-        <v>-0.04112872061837423</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03344829328714989</v>
+      </c>
+      <c r="F81">
+        <v>0.1312154016064794</v>
+      </c>
+      <c r="G81">
+        <v>-0.02296271487283849</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1296745081189748</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.07443682059984735</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.008752421858432807</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.09068205093888254</v>
+      </c>
+      <c r="F82">
+        <v>0.04765526835393995</v>
+      </c>
+      <c r="G82">
+        <v>-0.0512172879495205</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.00880549156580024</v>
+        <v>-0.03686228285482007</v>
       </c>
       <c r="C83">
-        <v>0.01602557369132513</v>
+        <v>0.03061445837676869</v>
       </c>
       <c r="D83">
-        <v>0.04028851797347238</v>
+        <v>0.005739127459080911</v>
       </c>
       <c r="E83">
-        <v>0.01721288785049236</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.0274453046086274</v>
+      </c>
+      <c r="F83">
+        <v>-0.03113043417654051</v>
+      </c>
+      <c r="G83">
+        <v>-0.06014474205477905</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.02772500802518462</v>
+        <v>-0.2136518767435902</v>
       </c>
       <c r="C85">
-        <v>0.09197829974001667</v>
+        <v>0.1435240340006344</v>
       </c>
       <c r="D85">
-        <v>0.2657188308295061</v>
+        <v>-0.0179143528581719</v>
       </c>
       <c r="E85">
-        <v>-0.04536292356146788</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09409187356204751</v>
+      </c>
+      <c r="F85">
+        <v>0.1326893913288559</v>
+      </c>
+      <c r="G85">
+        <v>0.092160863725731</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01083510376856996</v>
+        <v>-0.01398039406093225</v>
       </c>
       <c r="C86">
-        <v>0.01800757778554869</v>
+        <v>0.03009083740721549</v>
       </c>
       <c r="D86">
-        <v>0.06633337453160788</v>
+        <v>0.01242249583336778</v>
       </c>
       <c r="E86">
-        <v>0.03024606937529224</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04928438642926856</v>
+      </c>
+      <c r="F86">
+        <v>-0.03153307781735704</v>
+      </c>
+      <c r="G86">
+        <v>-0.1865807228396449</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.006882044053752839</v>
+        <v>-0.02254284969301069</v>
       </c>
       <c r="C87">
-        <v>-0.007943332231435705</v>
+        <v>0.02392792965843965</v>
       </c>
       <c r="D87">
-        <v>0.05463802907094209</v>
+        <v>0.01173102523000664</v>
       </c>
       <c r="E87">
-        <v>0.0298320549375289</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08629460233694297</v>
+      </c>
+      <c r="F87">
+        <v>-0.01364454605767899</v>
+      </c>
+      <c r="G87">
+        <v>-0.1174547812068078</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.03184644527656848</v>
+        <v>-0.09378573061512936</v>
       </c>
       <c r="C88">
-        <v>0.02901801328693183</v>
+        <v>0.06772507750747436</v>
       </c>
       <c r="D88">
-        <v>0.06238901010221577</v>
+        <v>0.02215491259533261</v>
       </c>
       <c r="E88">
-        <v>-0.004109831159182956</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.007570371090374371</v>
+      </c>
+      <c r="F88">
+        <v>0.02020118282441356</v>
+      </c>
+      <c r="G88">
+        <v>-0.08337052904917841</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1224285296322003</v>
+        <v>-0.2311246864405297</v>
       </c>
       <c r="C89">
-        <v>0.3977903442220342</v>
+        <v>-0.3677387685113118</v>
       </c>
       <c r="D89">
-        <v>-0.1784401847817325</v>
+        <v>0.0005339319173179261</v>
       </c>
       <c r="E89">
-        <v>-0.02579554940214574</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.0125920619663918</v>
+      </c>
+      <c r="F89">
+        <v>0.02534877045757076</v>
+      </c>
+      <c r="G89">
+        <v>-0.06767736430436054</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.09594578145801676</v>
+        <v>-0.2064501378869318</v>
       </c>
       <c r="C90">
-        <v>0.3186597704827778</v>
+        <v>-0.320213154826726</v>
       </c>
       <c r="D90">
-        <v>-0.1663249808727401</v>
+        <v>-0.004197559565318938</v>
       </c>
       <c r="E90">
-        <v>0.007077858482332953</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.002234741560194934</v>
+      </c>
+      <c r="F90">
+        <v>0.05363396465828156</v>
+      </c>
+      <c r="G90">
+        <v>-0.03742246034027712</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.01927258060655053</v>
+        <v>-0.1870389705569815</v>
       </c>
       <c r="C91">
-        <v>0.1113555631564704</v>
+        <v>0.1382087332961618</v>
       </c>
       <c r="D91">
-        <v>0.2246842131562259</v>
+        <v>-0.0222381986663371</v>
       </c>
       <c r="E91">
-        <v>-0.04341633949380791</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.0583503672643245</v>
+      </c>
+      <c r="F91">
+        <v>0.1449011921622105</v>
+      </c>
+      <c r="G91">
+        <v>-0.02324905425059285</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.06209257152981839</v>
+        <v>-0.1988068118008564</v>
       </c>
       <c r="C92">
-        <v>0.3155955335475605</v>
+        <v>-0.2570686405383066</v>
       </c>
       <c r="D92">
-        <v>-0.06232685993339156</v>
+        <v>-0.03780149663314426</v>
       </c>
       <c r="E92">
-        <v>0.06140820677514869</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.03865621750608478</v>
+      </c>
+      <c r="F92">
+        <v>0.05983447103711352</v>
+      </c>
+      <c r="G92">
+        <v>-0.129876667197395</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.09636573592422615</v>
+        <v>-0.2314813275600374</v>
       </c>
       <c r="C93">
-        <v>0.3397092398191761</v>
+        <v>-0.315823534120489</v>
       </c>
       <c r="D93">
-        <v>-0.1335877884741253</v>
+        <v>-0.01108139224616489</v>
       </c>
       <c r="E93">
-        <v>0.0254967209491682</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.009164976348775153</v>
+      </c>
+      <c r="F93">
+        <v>0.04108458845642</v>
+      </c>
+      <c r="G93">
+        <v>-0.05015946080253678</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.05550336856185323</v>
+        <v>-0.3162071969648424</v>
       </c>
       <c r="C94">
-        <v>0.1630999696557923</v>
+        <v>0.1732403369926781</v>
       </c>
       <c r="D94">
-        <v>0.2713009663396297</v>
+        <v>-0.01753238840227358</v>
       </c>
       <c r="E94">
-        <v>-0.09397114518113332</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1719059028516128</v>
+      </c>
+      <c r="F94">
+        <v>0.481094026854587</v>
+      </c>
+      <c r="G94">
+        <v>0.414085220544092</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.001550321523901845</v>
+        <v>-0.101996129708512</v>
       </c>
       <c r="C95">
-        <v>0.02729193290427378</v>
+        <v>0.08664689170328771</v>
       </c>
       <c r="D95">
-        <v>0.1210846979094135</v>
+        <v>-0.01107020714594628</v>
       </c>
       <c r="E95">
-        <v>0.1339576566633201</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.06910122728903494</v>
+      </c>
+      <c r="F95">
+        <v>-0.2016850355332244</v>
+      </c>
+      <c r="G95">
+        <v>0.08990429910149927</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.02990401217311609</v>
+        <v>-0.1977654693017627</v>
       </c>
       <c r="C98">
-        <v>0.1443554564231377</v>
+        <v>0.04509085422760081</v>
       </c>
       <c r="D98">
-        <v>0.1536563452016328</v>
+        <v>-0.01341856854128431</v>
       </c>
       <c r="E98">
-        <v>0.0381412828449132</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06404554427048081</v>
+      </c>
+      <c r="F98">
+        <v>-0.2407191777288006</v>
+      </c>
+      <c r="G98">
+        <v>0.003168536002985672</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +2994,62 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01067109773573463</v>
+        <v>-0.00968807308115161</v>
       </c>
       <c r="C101">
-        <v>0.01612379735094914</v>
+        <v>0.02348841063843222</v>
       </c>
       <c r="D101">
-        <v>0.02177834286676317</v>
+        <v>0.008833839902252902</v>
       </c>
       <c r="E101">
-        <v>0.004471442359704705</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.001361844639239592</v>
+      </c>
+      <c r="F101">
+        <v>0.01882861433040166</v>
+      </c>
+      <c r="G101">
+        <v>-0.09308296101100395</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.02135376896734595</v>
+        <v>-0.1173472061770361</v>
       </c>
       <c r="C102">
-        <v>0.04634718278948792</v>
+        <v>0.0826506206479708</v>
       </c>
       <c r="D102">
-        <v>0.1285802091971345</v>
+        <v>0.0006213255967153151</v>
       </c>
       <c r="E102">
-        <v>-0.02277358045598147</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03383255665664767</v>
+      </c>
+      <c r="F102">
+        <v>0.04244280363726917</v>
+      </c>
+      <c r="G102">
+        <v>-0.009489553588320774</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,22 +3063,34 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9524680533488527</v>
+        <v>-0.02106360075263908</v>
       </c>
       <c r="C104">
-        <v>-0.2718492363339244</v>
+        <v>-0.02919376550162431</v>
       </c>
       <c r="D104">
-        <v>-0.03479698086044748</v>
+        <v>0.9877862074057033</v>
       </c>
       <c r="E104">
-        <v>-0.02860449864384837</v>
+        <v>-0.0471725960783758</v>
+      </c>
+      <c r="F104">
+        <v>0.03581512761315385</v>
+      </c>
+      <c r="G104">
+        <v>0.0345418982874859</v>
       </c>
     </row>
   </sheetData>
